--- a/toMakeAProgramLanguage/ToMakeALanguage/符号映射关系.xlsx
+++ b/toMakeAProgramLanguage/ToMakeALanguage/符号映射关系.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20437" windowHeight="8880" activeTab="2"/>
+    <workbookView windowWidth="20632" windowHeight="9412" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="元素类别" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="251">
   <si>
     <t>DA语言词法分析器转换表</t>
   </si>
@@ -345,6 +345,9 @@
     <t>B</t>
   </si>
   <si>
+    <t>"C"</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
@@ -477,16 +480,40 @@
     <t>附元素类别：</t>
   </si>
   <si>
-    <t>总体定义如下：</t>
+    <t>语义分析子程序：</t>
+  </si>
+  <si>
+    <t>1、语义分析类型</t>
+  </si>
+  <si>
+    <t>0空</t>
+  </si>
+  <si>
+    <t>文法规则表</t>
   </si>
   <si>
     <t>未使用</t>
   </si>
   <si>
+    <t>Z</t>
+  </si>
+  <si>
     <t>使用</t>
   </si>
   <si>
-    <t>Z</t>
+    <t>read (if) create M</t>
+  </si>
+  <si>
+    <t>if top2 true goto top1</t>
+  </si>
+  <si>
+    <t>else goto I.next</t>
+  </si>
+  <si>
+    <t>poppop</t>
+  </si>
+  <si>
+    <t>gencode</t>
   </si>
   <si>
     <t>if32</t>
@@ -507,45 +534,165 @@
     <t>}4</t>
   </si>
   <si>
+    <t>ps:窃以为不会运行到这一行，原因有2</t>
+  </si>
+  <si>
+    <t>1：当语句不在if内时，语句将直接翻译</t>
+  </si>
+  <si>
+    <t>2：语句在if内时，将会在if语句内被处理</t>
+  </si>
+  <si>
     <t>启动接收P</t>
   </si>
   <si>
+    <t>ps:有这种情况说明一定是在if内了</t>
+  </si>
+  <si>
+    <t>new tran_xUnit</t>
+  </si>
+  <si>
+    <t>xUnit.sen=H,xUnit.unit=X</t>
+  </si>
+  <si>
+    <t>push X</t>
+  </si>
+  <si>
     <t>启动组合语句</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
+    <t>xUnit.sen=Q,xUnit.unit=X</t>
+  </si>
+  <si>
     <t>组合语句</t>
   </si>
   <si>
+    <t>if H.if == true</t>
+  </si>
+  <si>
+    <t>lookup k</t>
+  </si>
+  <si>
     <t>=9</t>
   </si>
   <si>
     <t>;15</t>
   </si>
   <si>
+    <t>tran_hUnit.val=cin</t>
+  </si>
+  <si>
     <t>sc40</t>
   </si>
   <si>
+    <t>new tran_bUnit</t>
+  </si>
+  <si>
+    <t>tran_bUnit.val="T.val"</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>push B</t>
+  </si>
+  <si>
     <t>"7</t>
   </si>
   <si>
     <t>T</t>
   </si>
   <si>
+    <t>new tran_tUnit</t>
+  </si>
+  <si>
+    <t>tran_tUnit.val=c.val+y.val</t>
+  </si>
+  <si>
+    <t>push T</t>
+  </si>
+  <si>
     <t>启动变量串</t>
   </si>
   <si>
     <t>Y</t>
   </si>
   <si>
+    <t>new tran_yUnit</t>
+  </si>
+  <si>
+    <t>tran_yUnit.val=c.val+y.val</t>
+  </si>
+  <si>
+    <t>push Y</t>
+  </si>
+  <si>
     <t>变量串</t>
   </si>
   <si>
+    <t>ps:只有HQ会被包含进if执行</t>
+  </si>
+  <si>
+    <t>if1 push1 el push0</t>
+  </si>
+  <si>
+    <t>pop,pop,pop</t>
+  </si>
+  <si>
+    <t>push J</t>
+  </si>
+  <si>
+    <t>enter top3:top2=top1</t>
+  </si>
+  <si>
+    <t>push N</t>
+  </si>
+  <si>
+    <t>enter top1:top2=null</t>
+  </si>
+  <si>
+    <t>pop,pop</t>
+  </si>
+  <si>
+    <t>new tran_lUnit</t>
+  </si>
+  <si>
+    <t>tran_lUnit.val=AMA</t>
+  </si>
+  <si>
+    <t>pop pop pop</t>
+  </si>
+  <si>
+    <t>push L</t>
+  </si>
+  <si>
+    <t>charge Q.if == true</t>
+  </si>
+  <si>
+    <t>true print top</t>
+  </si>
+  <si>
+    <t>else Q.val=B.val</t>
+  </si>
+  <si>
+    <t>push Q</t>
+  </si>
+  <si>
     <t>pr39</t>
   </si>
   <si>
+    <t>new tram_kUnit</t>
+  </si>
+  <si>
+    <t>push</t>
+  </si>
+  <si>
+    <t>new tran_vUnit</t>
+  </si>
+  <si>
     <t>[0-9]+42</t>
   </si>
   <si>
@@ -616,6 +763,12 @@
   </si>
   <si>
     <t>ch38</t>
+  </si>
+  <si>
+    <t>词法规则表</t>
+  </si>
+  <si>
+    <t>文法信息表</t>
   </si>
 </sst>
 </file>
@@ -623,12 +776,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -649,6 +802,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="方正粗黑宋简体"/>
@@ -662,28 +821,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="方正粗黑宋简体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="方正粗黑宋简体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="方正粗黑宋简体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -693,14 +841,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -716,40 +864,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -762,53 +881,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -824,9 +897,77 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -875,6 +1016,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -887,13 +1040,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="5" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.4"/>
+        <fgColor theme="5" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -905,13 +1058,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.8"/>
+        <fgColor theme="9" tint="-0.5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.5"/>
+        <fgColor rgb="FF450C8D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,7 +1106,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
+        <fgColor rgb="FF0B5FD1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,31 +1118,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF450C8D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF1D4B1C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,25 +1130,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0B5FD1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,19 +1154,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,37 +1172,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1085,25 +1190,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1121,7 +1214,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1133,31 +1298,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1318,6 +1459,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -1326,8 +1476,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1348,11 +1500,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1371,32 +1538,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1405,10 +1546,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="45" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1417,137 +1558,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="42" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1584,125 +1725,203 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1710,31 +1929,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2108,22 +2333,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56"/>
+      <c r="A1" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="82"/>
     </row>
     <row r="2" ht="14.25" spans="1:6">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="59"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="85"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
@@ -2297,7 +2522,7 @@
       <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="86" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="1">
@@ -2306,7 +2531,7 @@
       <c r="C22" s="9"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="86" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="1">
@@ -2324,7 +2549,7 @@
       <c r="C24" s="9"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="60" t="s">
+      <c r="A25" s="86" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="1">
@@ -2333,7 +2558,7 @@
       <c r="C25" s="9"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="60" t="s">
+      <c r="A26" s="86" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="1">
@@ -2342,7 +2567,7 @@
       <c r="C26" s="9"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="86" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="1">
@@ -2351,7 +2576,7 @@
       <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="60" t="s">
+      <c r="A28" s="86" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="1">
@@ -2378,7 +2603,7 @@
       <c r="C30" s="9"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="60" t="s">
+      <c r="A31" s="86" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="1">
@@ -2538,7 +2763,7 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="78" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="6">
@@ -2567,7 +2792,7 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="53"/>
+      <c r="F3" s="79"/>
       <c r="G3" s="6" t="s">
         <v>47</v>
       </c>
@@ -3654,28 +3879,28 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD181"/>
+  <dimension ref="A1:XFD187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D64" workbookViewId="0">
+      <selection activeCell="P101" sqref="P101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.283185840708" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.141592920354" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.1681415929204" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7610619469027" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.0884955752212" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.4159292035398" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.3451327433628" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6283185840708" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.0088495575221" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6637168141593" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7522123893805" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83185840707965" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
     <col min="9" max="9" width="11.0884955752212" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="9.96460176991151" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5132743362832" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7964601769912" style="1" customWidth="1"/>
     <col min="12" max="18" width="9" style="1"/>
-    <col min="19" max="19" width="13.283185840708" style="1" customWidth="1"/>
-    <col min="20" max="21" width="9" style="1"/>
+    <col min="19" max="19" width="7.97345132743363" style="1" customWidth="1"/>
+    <col min="20" max="21" width="17.8761061946903" style="1" customWidth="1"/>
     <col min="22" max="22" width="16.070796460177" style="1" customWidth="1"/>
     <col min="23" max="16383" width="9" style="1"/>
   </cols>
@@ -3712,7 +3937,7 @@
       <c r="B3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="86" t="s">
         <v>103</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -3732,37 +3957,37 @@
       <c r="B4" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="86" t="s">
         <v>103</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="86" t="s">
         <v>103</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>101</v>
@@ -3773,15 +3998,15 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="86" t="s">
         <v>20</v>
       </c>
       <c r="G6" s="6" t="s">
@@ -3793,292 +4018,292 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="86" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>114</v>
-      </c>
       <c r="H8" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="86" t="s">
         <v>103</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="86" t="s">
         <v>103</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="86" t="s">
         <v>103</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="86" t="s">
         <v>103</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="86" t="s">
         <v>103</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="86" t="s">
         <v>103</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="86" t="s">
         <v>103</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C16" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="86" t="s">
         <v>23</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="86" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="86" t="s">
         <v>25</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="86" t="s">
         <v>26</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C20" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="86" t="s">
         <v>103</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C21" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="86" t="s">
         <v>103</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -4087,12 +4312,12 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="86" t="s">
         <v>103</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -4101,12 +4326,12 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C23" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="86" t="s">
         <v>103</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -4115,26 +4340,26 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="86" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="86" t="s">
         <v>103</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -4143,12 +4368,12 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C26" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" s="86" t="s">
         <v>103</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -4157,12 +4382,12 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C27" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" s="86" t="s">
         <v>103</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -4171,12 +4396,12 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C28" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="86" t="s">
         <v>103</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -4185,69 +4410,69 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C29" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="86" t="s">
         <v>103</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C30" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="86" t="s">
         <v>103</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C33" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="86" t="s">
         <v>103</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="4:4">
       <c r="D34" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C35" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="86" t="s">
         <v>103</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>15</v>
@@ -4255,30 +4480,30 @@
     </row>
     <row r="36" spans="4:8">
       <c r="D36" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="9"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C37" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="86" t="s">
         <v>103</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>102</v>
@@ -4289,10 +4514,10 @@
     </row>
     <row r="38" spans="4:6">
       <c r="D38" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>101</v>
@@ -4300,27 +4525,27 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C39" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" s="86" t="s">
         <v>103</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="4:6">
       <c r="D40" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>15</v>
@@ -4328,22 +4553,22 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C41" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" s="86" t="s">
         <v>103</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>15</v>
@@ -4351,7 +4576,7 @@
     </row>
     <row r="42" spans="4:8">
       <c r="D42" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
@@ -4360,28 +4585,28 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C44" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="H44" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>4</v>
@@ -4390,32 +4615,32 @@
     <row r="45" spans="4:9">
       <c r="D45" s="8"/>
       <c r="E45" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I45" s="8"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C46" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="86" t="s">
         <v>103</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>102</v>
@@ -4423,10 +4648,10 @@
     </row>
     <row r="47" spans="4:6">
       <c r="D47" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>101</v>
@@ -4434,19 +4659,19 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C48" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" s="86" t="s">
         <v>103</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>102</v>
@@ -4454,10 +4679,10 @@
     </row>
     <row r="49" spans="4:6">
       <c r="D49" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>101</v>
@@ -4465,19 +4690,19 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C50" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" s="86" t="s">
         <v>103</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>108</v>
@@ -4485,10 +4710,10 @@
     </row>
     <row r="51" spans="4:6">
       <c r="D51" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>107</v>
@@ -4496,22 +4721,22 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C52" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" s="86" t="s">
         <v>103</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>15</v>
@@ -4519,30 +4744,30 @@
     </row>
     <row r="53" spans="4:6">
       <c r="D53" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C54" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="C54" s="86" t="s">
         <v>103</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>102</v>
@@ -4553,10 +4778,10 @@
     </row>
     <row r="55" spans="4:6">
       <c r="D55" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>101</v>
@@ -4564,19 +4789,19 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C56" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" s="86" t="s">
         <v>103</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>102</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>102</v>
@@ -4590,7 +4815,7 @@
         <v>101</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F57" s="8" t="s">
         <v>101</v>
@@ -4598,19 +4823,19 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C58" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="C58" s="86" t="s">
         <v>103</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>15</v>
@@ -4618,25 +4843,25 @@
     </row>
     <row r="59" spans="4:6">
       <c r="D59" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F59" s="8"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C60" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" s="86" t="s">
         <v>103</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>108</v>
@@ -4657,55 +4882,73 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C62" s="60" t="s">
+      <c r="C62" s="86" t="s">
         <v>103</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C63" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="C63" s="86" t="s">
         <v>103</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>106</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16384">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" ht="21.35" spans="1:16384">
       <c r="A66" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B66" s="10"/>
       <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="F66" s="12"/>
+      <c r="D66" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E66" s="10"/>
+      <c r="F66" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
       <c r="XFD66" s="1"/>
     </row>
     <row r="67" spans="1:16384">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K67" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
+      <c r="R67" s="17"/>
+      <c r="S67" s="17"/>
+      <c r="T67" s="48"/>
       <c r="XFD67" s="1"/>
     </row>
     <row r="68" spans="1:16384">
@@ -4715,22 +4958,28 @@
       <c r="B68" s="11">
         <v>1</v>
       </c>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F68" s="14" t="s">
+      <c r="C68" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E68" s="9"/>
+      <c r="K68" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="G68" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H68" s="15" t="s">
+      <c r="L68" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="M68" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N68" s="20" t="s">
         <v>106</v>
       </c>
+      <c r="O68" s="18"/>
+      <c r="P68" s="18"/>
+      <c r="Q68" s="18"/>
+      <c r="R68" s="18"/>
+      <c r="S68" s="18"/>
+      <c r="T68" s="18"/>
       <c r="XFD68" s="1"/>
     </row>
     <row r="69" spans="1:16384">
@@ -4740,23 +4989,29 @@
       <c r="B69" s="11">
         <v>2</v>
       </c>
-      <c r="C69" s="13"/>
-      <c r="D69" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F69" s="15" t="s">
+      <c r="C69" s="12"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="K69" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="L69" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="G69" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H69" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="I69" s="41"/>
+      <c r="M69" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N69" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="O69" s="22"/>
+      <c r="P69" s="18"/>
+      <c r="Q69" s="18"/>
+      <c r="R69" s="18"/>
+      <c r="S69" s="18"/>
+      <c r="T69" s="18"/>
       <c r="XFD69" s="1"/>
     </row>
     <row r="70" spans="1:16384">
@@ -4766,37 +5021,53 @@
       <c r="B70" s="11">
         <v>3</v>
       </c>
-      <c r="C70" s="16"/>
-      <c r="D70" s="11"/>
+      <c r="C70" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>161</v>
+      </c>
       <c r="E70" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F70" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K70" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="G70" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J70" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L70" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="M70" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>162</v>
+      <c r="L70" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="M70" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N70" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="O70" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="P70" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q70" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="R70" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="S70" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="T70" s="18" t="s">
+        <v>171</v>
       </c>
       <c r="XFD70" s="1"/>
     </row>
@@ -4807,45 +5078,63 @@
       <c r="B71" s="11">
         <v>4</v>
       </c>
-      <c r="C71" s="16"/>
-      <c r="D71" s="11"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="11" t="s">
+        <v>172</v>
+      </c>
       <c r="E71" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F71" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="G71" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H71" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="I71" s="21" t="s">
-        <v>139</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K71" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="L71" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="M71" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N71" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="O71" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="P71" s="18"/>
+      <c r="Q71" s="18"/>
+      <c r="R71" s="18"/>
+      <c r="S71" s="18"/>
+      <c r="T71" s="18"/>
       <c r="XFD71" s="1"/>
     </row>
     <row r="72" spans="1:16384">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
-      <c r="C72" s="16"/>
+      <c r="C72" s="13"/>
       <c r="D72" s="11"/>
-      <c r="E72" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F72" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="G72" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H72" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="I72" s="21" t="s">
-        <v>139</v>
-      </c>
+      <c r="K72" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="L72" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="M72" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N72" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="O72" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="P72" s="18"/>
+      <c r="Q72" s="18"/>
+      <c r="R72" s="18"/>
+      <c r="S72" s="18"/>
+      <c r="T72" s="18"/>
       <c r="XFD72" s="1"/>
     </row>
     <row r="73" spans="1:16384">
@@ -4855,23 +5144,28 @@
       <c r="B73" s="11">
         <v>5</v>
       </c>
-      <c r="C73" s="16"/>
+      <c r="C73" s="13"/>
       <c r="D73" s="11"/>
-      <c r="E73" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F73" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="G73" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H73" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="I73" s="21" t="s">
-        <v>139</v>
-      </c>
+      <c r="K73" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="L73" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="M73" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N73" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="O73" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="P73" s="18"/>
+      <c r="Q73" s="18"/>
+      <c r="R73" s="18"/>
+      <c r="S73" s="18"/>
+      <c r="T73" s="18"/>
       <c r="XFD73" s="1"/>
     </row>
     <row r="74" spans="1:16384">
@@ -4881,23 +5175,28 @@
       <c r="B74" s="11">
         <v>6</v>
       </c>
-      <c r="C74" s="16"/>
+      <c r="C74" s="13"/>
       <c r="D74" s="11"/>
-      <c r="E74" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F74" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="G74" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H74" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="I74" s="21" t="s">
-        <v>139</v>
-      </c>
+      <c r="K74" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="L74" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="M74" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N74" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="O74" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="P74" s="18"/>
+      <c r="Q74" s="18"/>
+      <c r="R74" s="18"/>
+      <c r="S74" s="18"/>
+      <c r="T74" s="18"/>
       <c r="XFD74" s="1"/>
     </row>
     <row r="75" spans="1:16384">
@@ -4907,23 +5206,28 @@
       <c r="B75" s="11">
         <v>7</v>
       </c>
-      <c r="C75" s="16"/>
+      <c r="C75" s="13"/>
       <c r="D75" s="11"/>
-      <c r="E75" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F75" s="21" t="s">
+      <c r="K75" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="G75" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H75" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="I75" s="21" t="s">
-        <v>139</v>
-      </c>
+      <c r="L75" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="M75" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N75" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="O75" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="P75" s="18"/>
+      <c r="Q75" s="18"/>
+      <c r="R75" s="18"/>
+      <c r="S75" s="18"/>
+      <c r="T75" s="18"/>
       <c r="XFD75" s="1"/>
     </row>
     <row r="76" spans="1:16384">
@@ -4933,23 +5237,28 @@
       <c r="B76" s="11">
         <v>8</v>
       </c>
-      <c r="C76" s="16"/>
+      <c r="C76" s="13"/>
       <c r="D76" s="11"/>
-      <c r="E76" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F76" s="21" t="s">
+      <c r="K76" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="G76" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H76" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="I76" s="21" t="s">
-        <v>139</v>
-      </c>
+      <c r="L76" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="M76" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N76" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="O76" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="P76" s="18"/>
+      <c r="Q76" s="18"/>
+      <c r="R76" s="18"/>
+      <c r="S76" s="18"/>
+      <c r="T76" s="18"/>
       <c r="XFD76" s="1"/>
     </row>
     <row r="77" spans="1:16384">
@@ -4959,23 +5268,28 @@
       <c r="B77" s="11">
         <v>9</v>
       </c>
-      <c r="C77" s="16"/>
+      <c r="C77" s="13"/>
       <c r="D77" s="11"/>
-      <c r="E77" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F77" s="21" t="s">
+      <c r="K77" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="G77" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H77" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="I77" s="21" t="s">
-        <v>139</v>
-      </c>
+      <c r="L77" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="M77" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N77" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="O77" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="P77" s="18"/>
+      <c r="Q77" s="18"/>
+      <c r="R77" s="18"/>
+      <c r="S77" s="18"/>
+      <c r="T77" s="18"/>
       <c r="XFD77" s="1"/>
     </row>
     <row r="78" spans="1:16384">
@@ -4985,23 +5299,28 @@
       <c r="B78" s="11">
         <v>10</v>
       </c>
-      <c r="C78" s="16"/>
+      <c r="C78" s="13"/>
       <c r="D78" s="11"/>
-      <c r="E78" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F78" s="21" t="s">
+      <c r="K78" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="G78" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H78" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="I78" s="21" t="s">
-        <v>139</v>
-      </c>
+      <c r="L78" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="M78" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N78" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="O78" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="P78" s="18"/>
+      <c r="Q78" s="18"/>
+      <c r="R78" s="18"/>
+      <c r="S78" s="18"/>
+      <c r="T78" s="18"/>
       <c r="XFD78" s="1"/>
     </row>
     <row r="79" spans="1:16384">
@@ -5011,25 +5330,42 @@
       <c r="B79" s="11">
         <v>11</v>
       </c>
-      <c r="C79" s="16"/>
-      <c r="D79" s="11"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="11" t="s">
+        <v>176</v>
+      </c>
       <c r="E79" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F79" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="G79" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H79" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="I79" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="J79" s="43"/>
-      <c r="M79" s="41"/>
+      <c r="H79" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K79" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="L79" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="M79" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N79" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="O79" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="P79" s="31"/>
+      <c r="Q79" s="18"/>
+      <c r="R79" s="18"/>
+      <c r="S79" s="22"/>
+      <c r="T79" s="18"/>
       <c r="XFD79" s="1"/>
     </row>
     <row r="80" spans="1:16384">
@@ -5039,25 +5375,40 @@
       <c r="B80" s="11">
         <v>12</v>
       </c>
-      <c r="C80" s="16"/>
+      <c r="C80" s="13"/>
       <c r="D80" s="11"/>
       <c r="E80" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G80" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F80" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="G80" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H80" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="I80" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="J80" s="43"/>
-      <c r="M80" s="41"/>
+      <c r="H80" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K80" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="L80" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="M80" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N80" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="O80" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="P80" s="31"/>
+      <c r="Q80" s="18"/>
+      <c r="R80" s="18"/>
+      <c r="S80" s="22"/>
+      <c r="T80" s="18"/>
       <c r="XFD80" s="1"/>
     </row>
     <row r="81" spans="1:16384">
@@ -5067,25 +5418,40 @@
       <c r="B81" s="11">
         <v>13</v>
       </c>
-      <c r="C81" s="16"/>
+      <c r="C81" s="13"/>
       <c r="D81" s="11"/>
       <c r="E81" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F81" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="G81" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H81" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="I81" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="J81" s="43"/>
-      <c r="M81" s="41"/>
+        <v>177</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K81" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="L81" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="M81" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N81" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="O81" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="P81" s="31"/>
+      <c r="Q81" s="18"/>
+      <c r="R81" s="18"/>
+      <c r="S81" s="22"/>
+      <c r="T81" s="18"/>
       <c r="XFD81" s="1"/>
     </row>
     <row r="82" spans="1:16384">
@@ -5095,25 +5461,40 @@
       <c r="B82" s="11">
         <v>14</v>
       </c>
-      <c r="C82" s="13"/>
+      <c r="C82" s="12"/>
       <c r="D82" s="11"/>
       <c r="E82" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F82" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="G82" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H82" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="I82" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="J82" s="43"/>
-      <c r="M82" s="41"/>
+        <v>177</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K82" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="L82" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="M82" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N82" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="O82" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="P82" s="31"/>
+      <c r="Q82" s="18"/>
+      <c r="R82" s="18"/>
+      <c r="S82" s="22"/>
+      <c r="T82" s="18"/>
       <c r="XFD82" s="1"/>
     </row>
     <row r="83" spans="1:16384">
@@ -5123,29 +5504,40 @@
       <c r="B83" s="11">
         <v>15</v>
       </c>
-      <c r="C83" s="16"/>
-      <c r="D83" s="11"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="E83" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F83" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K83" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="G83" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H83" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="I83" s="60" t="s">
-        <v>167</v>
-      </c>
-      <c r="J83" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>168</v>
-      </c>
+      <c r="L83" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="M83" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N83" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="O83" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="P83" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q83" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="R83" s="18"/>
+      <c r="S83" s="18"/>
+      <c r="T83" s="18"/>
       <c r="XFD83" s="1"/>
     </row>
     <row r="84" spans="1:16384">
@@ -5155,1672 +5547,2797 @@
       <c r="B84" s="11">
         <v>16</v>
       </c>
-      <c r="C84" s="16"/>
-      <c r="D84" s="11"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="E84" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F84" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K84" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="G84" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H84" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="I84" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="J84" s="33" t="s">
+      <c r="L84" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="M84" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N84" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="O84" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="P84" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="K84" s="1" t="s">
+      <c r="Q84" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="R84" s="18"/>
+      <c r="S84" s="18"/>
+      <c r="T84" s="18"/>
+      <c r="XFD84" s="1"/>
+    </row>
+    <row r="85" spans="1:16384">
+      <c r="A85" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B85" s="11">
+        <v>17</v>
+      </c>
+      <c r="C85" s="13"/>
+      <c r="D85" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K85" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="L85" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="M85" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N85" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="O85" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="P85" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q85" s="18"/>
+      <c r="R85" s="18"/>
+      <c r="S85" s="18"/>
+      <c r="T85" s="18"/>
+      <c r="XFD85" s="1"/>
+    </row>
+    <row r="86" spans="1:16384">
+      <c r="A86" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B86" s="11">
+        <v>18</v>
+      </c>
+      <c r="C86" s="13"/>
+      <c r="D86" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F86" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K86" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="L86" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="M86" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N86" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="O86" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="P86" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q86" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="R86" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="XFD84" s="1"/>
-    </row>
-    <row r="85" spans="1:16384">
-      <c r="A85" s="11"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G85" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H85" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="I85" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="XFD85" s="1"/>
-    </row>
-    <row r="86" spans="1:16384">
-      <c r="A86" s="11"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G86" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H86" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="I86" s="60" t="s">
-        <v>167</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="K86" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="M86" s="1" t="s">
-        <v>168</v>
-      </c>
+      <c r="S86" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="T86" s="18"/>
       <c r="XFD86" s="1"/>
     </row>
     <row r="87" spans="1:16384">
-      <c r="A87" s="11"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="11"/>
+      <c r="A87" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B87" s="11">
+        <v>19</v>
+      </c>
+      <c r="C87" s="13"/>
+      <c r="D87" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="E87" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G87" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K87" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="F87" s="26" t="s">
+      <c r="L87" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="G87" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="I87" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>170</v>
-      </c>
+      <c r="M87" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N87" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="O87" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="P87" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q87" s="18"/>
+      <c r="R87" s="18"/>
+      <c r="S87" s="18"/>
+      <c r="T87" s="18"/>
       <c r="XFD87" s="1"/>
     </row>
     <row r="88" spans="1:16384">
-      <c r="A88" s="11"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="11"/>
+      <c r="A88" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88" s="11">
+        <v>20</v>
+      </c>
+      <c r="C88" s="13"/>
+      <c r="D88" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="E88" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F88" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="G88" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H88" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="I88" s="29" t="s">
-        <v>173</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="F88" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K88" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="L88" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="M88" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N88" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="O88" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="P88" s="18"/>
+      <c r="Q88" s="18"/>
+      <c r="R88" s="18"/>
+      <c r="S88" s="18"/>
+      <c r="T88" s="18"/>
       <c r="XFD88" s="1"/>
     </row>
     <row r="89" spans="1:16384">
-      <c r="A89" s="11" t="s">
-        <v>17</v>
+      <c r="A89" s="88" t="s">
+        <v>21</v>
       </c>
       <c r="B89" s="11">
-        <v>17</v>
-      </c>
-      <c r="C89" s="16"/>
-      <c r="D89" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="C89" s="13"/>
+      <c r="D89" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="E89" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F89" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="G89" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H89" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="I89" s="29" t="s">
-        <v>173</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="F89" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K89" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="L89" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="M89" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N89" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="O89" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="P89" s="18"/>
+      <c r="Q89" s="18"/>
+      <c r="R89" s="18"/>
+      <c r="S89" s="18"/>
+      <c r="T89" s="18"/>
       <c r="XFD89" s="1"/>
     </row>
     <row r="90" spans="1:16384">
       <c r="A90" s="11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B90" s="11">
-        <v>18</v>
-      </c>
-      <c r="C90" s="16"/>
-      <c r="D90" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="C90" s="13"/>
+      <c r="D90" s="11" t="s">
+        <v>205</v>
+      </c>
       <c r="E90" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F90" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K90" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="G90" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H90" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="I90" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="J90" s="33" t="s">
+      <c r="L90" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="M90" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N90" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="O90" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="P90" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="R90" s="9"/>
-      <c r="S90" s="9"/>
+      <c r="Q90" s="18"/>
+      <c r="R90" s="18"/>
+      <c r="S90" s="18"/>
+      <c r="T90" s="18"/>
+      <c r="V90" s="9"/>
+      <c r="W90" s="9"/>
       <c r="XFD90" s="1"/>
     </row>
     <row r="91" spans="1:16384">
-      <c r="A91" s="11" t="s">
-        <v>19</v>
+      <c r="A91" s="88" t="s">
+        <v>23</v>
       </c>
       <c r="B91" s="11">
-        <v>19</v>
-      </c>
-      <c r="C91" s="16"/>
+        <v>23</v>
+      </c>
+      <c r="C91" s="13"/>
       <c r="D91" s="11"/>
       <c r="E91" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F91" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K91" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="G91" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H91" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="I91" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="J91" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="R91" s="9"/>
-      <c r="S91" s="9"/>
+      <c r="L91" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="M91" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N91" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="O91" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="P91" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q91" s="18"/>
+      <c r="R91" s="18"/>
+      <c r="S91" s="18"/>
+      <c r="T91" s="18"/>
       <c r="XFD91" s="1"/>
     </row>
     <row r="92" spans="1:16384">
-      <c r="A92" s="61" t="s">
-        <v>20</v>
+      <c r="A92" s="88" t="s">
+        <v>24</v>
       </c>
       <c r="B92" s="11">
-        <v>20</v>
-      </c>
-      <c r="C92" s="16"/>
+        <v>24</v>
+      </c>
+      <c r="C92" s="13"/>
       <c r="D92" s="11"/>
       <c r="E92" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F92" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="G92" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H92" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="I92" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="J92" s="26" t="s">
-        <v>108</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K92" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="L92" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="M92" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N92" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="O92" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="P92" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q92" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="R92" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="S92" s="22"/>
+      <c r="T92" s="18"/>
       <c r="XFD92" s="1"/>
     </row>
     <row r="93" spans="1:16384">
-      <c r="A93" s="61" t="s">
-        <v>21</v>
+      <c r="A93" s="88" t="s">
+        <v>25</v>
       </c>
       <c r="B93" s="11">
-        <v>21</v>
-      </c>
-      <c r="C93" s="16"/>
+        <v>25</v>
+      </c>
+      <c r="C93" s="13"/>
       <c r="D93" s="11"/>
       <c r="E93" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K93" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="L93" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="M93" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N93" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="O93" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="P93" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q93" s="18"/>
+      <c r="R93" s="22"/>
+      <c r="S93" s="22"/>
+      <c r="T93" s="18"/>
+      <c r="XFD93" s="1"/>
+    </row>
+    <row r="94" spans="1:16384">
+      <c r="A94" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="B94" s="11">
+        <v>26</v>
+      </c>
+      <c r="C94" s="13"/>
+      <c r="D94" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K94" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="L94" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="F93" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="G93" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H93" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="I93" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="J93" s="60" t="s">
+      <c r="M94" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N94" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="O94" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="P94" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q94" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="R94" s="18"/>
+      <c r="S94" s="22"/>
+      <c r="T94" s="22"/>
+      <c r="XFD94" s="1"/>
+    </row>
+    <row r="95" spans="1:16384">
+      <c r="A95" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B95" s="11">
+        <v>27</v>
+      </c>
+      <c r="C95" s="13"/>
+      <c r="D95" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K95" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="L95" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="M95" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N95" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="O95" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="K93" s="33" t="s">
+      <c r="P95" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q95" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="R95" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="S95" s="18"/>
+      <c r="T95" s="22"/>
+      <c r="XFD95" s="1"/>
+    </row>
+    <row r="96" spans="1:16384">
+      <c r="A96" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B96" s="11">
+        <v>28</v>
+      </c>
+      <c r="C96" s="13"/>
+      <c r="D96" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K96" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="L96" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="M96" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N96" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="O96" s="18"/>
+      <c r="P96" s="18"/>
+      <c r="Q96" s="18"/>
+      <c r="R96" s="18"/>
+      <c r="S96" s="18"/>
+      <c r="T96" s="18"/>
+      <c r="XFD96" s="1"/>
+    </row>
+    <row r="97" spans="1:16384">
+      <c r="A97" s="88" t="s">
+        <v>29</v>
+      </c>
+      <c r="B97" s="11">
+        <v>29</v>
+      </c>
+      <c r="C97" s="13"/>
+      <c r="D97" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K97" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="L97" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="L93" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="M93" s="9"/>
-      <c r="XFD93" s="1"/>
-    </row>
-    <row r="94" spans="1:16384">
-      <c r="A94" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B94" s="11">
-        <v>22</v>
-      </c>
-      <c r="C94" s="16"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F94" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="G94" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H94" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="I94" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="J94" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="L94" s="9"/>
-      <c r="M94" s="9"/>
-      <c r="XFD94" s="1"/>
-    </row>
-    <row r="95" spans="1:16384">
-      <c r="A95" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="B95" s="11">
-        <v>23</v>
-      </c>
-      <c r="C95" s="16"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F95" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H95" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="I95" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="J95" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="K95" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="L95" s="9"/>
-      <c r="M95" s="9"/>
-      <c r="XFD95" s="1"/>
-    </row>
-    <row r="96" spans="1:16384">
-      <c r="A96" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="B96" s="11">
-        <v>24</v>
-      </c>
-      <c r="C96" s="16"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F96" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="G96" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H96" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="I96" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="J96" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="K96" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="L96" s="9"/>
-      <c r="M96" s="9"/>
-      <c r="XFD96" s="1"/>
-    </row>
-    <row r="97" spans="1:16384">
-      <c r="A97" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="B97" s="11">
-        <v>25</v>
-      </c>
-      <c r="C97" s="16"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F97" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="G97" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H97" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="I97" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="J97" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="L97" s="1"/>
-      <c r="M97" s="9"/>
-      <c r="N97" s="9"/>
+      <c r="M97" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N97" s="18" t="s">
+        <v>225</v>
+      </c>
       <c r="XFD97" s="1"/>
     </row>
     <row r="98" spans="1:16384">
-      <c r="A98" s="61" t="s">
-        <v>26</v>
+      <c r="A98" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="B98" s="11">
-        <v>26</v>
-      </c>
-      <c r="C98" s="16"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C98" s="13"/>
+      <c r="D98" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K98" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="L98" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="F98" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="G98" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J98" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="K98" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L98" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="N98" s="9"/>
+      <c r="M98" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N98" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="O98" s="14"/>
       <c r="XFD98" s="1"/>
     </row>
     <row r="99" spans="1:16384">
       <c r="A99" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B99" s="11">
-        <v>27</v>
-      </c>
-      <c r="C99" s="16"/>
-      <c r="D99" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="C99" s="13"/>
+      <c r="D99" s="14" t="s">
+        <v>223</v>
+      </c>
       <c r="E99" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F99" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="G99" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H99" s="28" t="s">
-        <v>109</v>
+        <v>224</v>
+      </c>
+      <c r="K99" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="L99" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="M99" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N99" s="89" t="s">
+        <v>227</v>
       </c>
       <c r="XFD99" s="1"/>
     </row>
     <row r="100" spans="1:16384">
       <c r="A100" s="11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B100" s="11">
-        <v>28</v>
-      </c>
-      <c r="C100" s="16"/>
-      <c r="D100" s="11"/>
+        <v>32</v>
+      </c>
+      <c r="C100" s="13"/>
+      <c r="D100" s="14" t="s">
+        <v>223</v>
+      </c>
       <c r="E100" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F100" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="G100" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>176</v>
+        <v>224</v>
+      </c>
+      <c r="K100" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="L100" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="M100" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N100" s="89" t="s">
+        <v>228</v>
       </c>
       <c r="XFD100" s="1"/>
     </row>
     <row r="101" spans="1:16384">
-      <c r="A101" s="61" t="s">
-        <v>29</v>
+      <c r="A101" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="B101" s="11">
-        <v>29</v>
-      </c>
-      <c r="C101" s="16"/>
-      <c r="D101" s="11"/>
+        <v>33</v>
+      </c>
+      <c r="C101" s="13"/>
+      <c r="D101" s="14" t="s">
+        <v>223</v>
+      </c>
       <c r="E101" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F101" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="G101" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="I101" s="45"/>
+        <v>224</v>
+      </c>
+      <c r="K101" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="L101" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="M101" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N101" s="6" t="s">
+        <v>229</v>
+      </c>
       <c r="XFD101" s="1"/>
     </row>
     <row r="102" spans="1:16384">
       <c r="A102" s="11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B102" s="11">
-        <v>30</v>
-      </c>
-      <c r="C102" s="16"/>
-      <c r="D102" s="11"/>
+        <v>34</v>
+      </c>
+      <c r="C102" s="12"/>
+      <c r="D102" s="14" t="s">
+        <v>223</v>
+      </c>
       <c r="E102" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F102" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="G102" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H102" s="61" t="s">
-        <v>178</v>
+        <v>224</v>
+      </c>
+      <c r="K102" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="L102" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="M102" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N102" s="90" t="s">
+        <v>230</v>
       </c>
       <c r="XFD102" s="1"/>
     </row>
     <row r="103" spans="1:16384">
       <c r="A103" s="11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B103" s="11">
-        <v>31</v>
-      </c>
-      <c r="C103" s="16"/>
-      <c r="D103" s="11"/>
+        <v>35</v>
+      </c>
+      <c r="C103" s="12"/>
+      <c r="D103" s="14" t="s">
+        <v>223</v>
+      </c>
       <c r="E103" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F103" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="G103" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H103" s="61" t="s">
-        <v>179</v>
+        <v>224</v>
+      </c>
+      <c r="K103" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="L103" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="M103" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N103" s="6" t="s">
+        <v>231</v>
       </c>
       <c r="XFD103" s="1"/>
     </row>
     <row r="104" spans="1:16384">
       <c r="A104" s="11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B104" s="11">
-        <v>32</v>
-      </c>
-      <c r="C104" s="16"/>
-      <c r="D104" s="11"/>
+        <v>36</v>
+      </c>
+      <c r="C104" s="13"/>
+      <c r="D104" s="14" t="s">
+        <v>223</v>
+      </c>
       <c r="E104" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F104" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="G104" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H104" s="11" t="s">
-        <v>180</v>
+        <v>224</v>
+      </c>
+      <c r="K104" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="L104" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="M104" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N104" s="89" t="s">
+        <v>232</v>
       </c>
       <c r="XFD104" s="1"/>
     </row>
     <row r="105" spans="1:16384">
       <c r="A105" s="11" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B105" s="11">
-        <v>33</v>
-      </c>
-      <c r="C105" s="16"/>
-      <c r="D105" s="11"/>
+        <v>37</v>
+      </c>
+      <c r="C105" s="13"/>
+      <c r="D105" s="14" t="s">
+        <v>223</v>
+      </c>
       <c r="E105" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F105" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="K105" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="G105" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H105" s="62" t="s">
-        <v>181</v>
+      <c r="L105" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="M105" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N105" s="6">
+        <v>-11</v>
       </c>
       <c r="XFD105" s="1"/>
     </row>
     <row r="106" spans="1:16384">
       <c r="A106" s="11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B106" s="11">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C106" s="13"/>
-      <c r="D106" s="11"/>
+      <c r="D106" s="14" t="s">
+        <v>223</v>
+      </c>
       <c r="E106" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F106" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="K106" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="G106" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H106" s="11" t="s">
-        <v>182</v>
+      <c r="L106" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="M106" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N106" s="6" t="s">
+        <v>233</v>
       </c>
       <c r="XFD106" s="1"/>
     </row>
     <row r="107" spans="1:16384">
       <c r="A107" s="11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B107" s="11">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C107" s="13"/>
-      <c r="D107" s="11"/>
+      <c r="D107" s="14" t="s">
+        <v>223</v>
+      </c>
       <c r="E107" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F107" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="K107" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="G107" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H107" s="61" t="s">
-        <v>183</v>
-      </c>
+      <c r="L107" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="M107" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N107" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="O107" s="11"/>
       <c r="XFD107" s="1"/>
     </row>
     <row r="108" spans="1:16384">
       <c r="A108" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B108" s="11">
+        <v>40</v>
+      </c>
+      <c r="C108" s="13"/>
+      <c r="D108" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K108" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="L108" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="M108" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N108" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="O108" s="11"/>
+      <c r="XFD108" s="1"/>
+    </row>
+    <row r="109" spans="1:16384">
+      <c r="A109" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109" s="1">
+        <v>41</v>
+      </c>
+      <c r="C109" s="13"/>
+      <c r="D109" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K109" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="L109" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="M109" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N109" s="89" t="s">
+        <v>236</v>
+      </c>
+      <c r="XFD109" s="1"/>
+    </row>
+    <row r="110" spans="1:16384">
+      <c r="A110" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B110" s="1">
+        <v>42</v>
+      </c>
+      <c r="C110" s="13"/>
+      <c r="D110" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K110" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="L110" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="M110" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N110" s="89" t="s">
+        <v>237</v>
+      </c>
+      <c r="O110" s="11"/>
+      <c r="XFD110" s="1"/>
+    </row>
+    <row r="111" spans="4:16384">
+      <c r="D111" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K111" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="L111" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="M111" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N111" s="89" t="s">
+        <v>238</v>
+      </c>
+      <c r="O111" s="11"/>
+      <c r="XFD111" s="1"/>
+    </row>
+    <row r="112" spans="4:16384">
+      <c r="D112" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K112" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="L112" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="M112" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N112" s="89" t="s">
+        <v>239</v>
+      </c>
+      <c r="O112" s="11"/>
+      <c r="XFD112" s="1"/>
+    </row>
+    <row r="113" spans="4:16384">
+      <c r="D113" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K113" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="L113" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="M113" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N113" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="O113" s="11"/>
+      <c r="XFD113" s="1"/>
+    </row>
+    <row r="114" spans="4:16384">
+      <c r="D114" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K114" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="L114" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="M114" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N114" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="O114" s="11"/>
+      <c r="XFD114" s="1"/>
+    </row>
+    <row r="115" spans="4:16384">
+      <c r="D115" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K115" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="L115" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="M115" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N115" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="O115" s="11"/>
+      <c r="XFD115" s="1"/>
+    </row>
+    <row r="116" spans="4:16384">
+      <c r="D116" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K116" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="L116" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="M116" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N116" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="O116" s="11"/>
+      <c r="XFD116" s="1"/>
+    </row>
+    <row r="117" spans="4:16384">
+      <c r="D117" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K117" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="L117" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="M117" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N117" s="87" t="s">
+        <v>244</v>
+      </c>
+      <c r="O117" s="11"/>
+      <c r="XFD117" s="1"/>
+    </row>
+    <row r="118" spans="4:16384">
+      <c r="D118" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K118" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="L118" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="M118" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N118" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="O118" s="11"/>
+      <c r="XFD118" s="1"/>
+    </row>
+    <row r="119" spans="1:16384">
+      <c r="A119" s="11"/>
+      <c r="D119" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K119" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="L119" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="M119" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N119" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="O119" s="11"/>
+      <c r="XFD119" s="1"/>
+    </row>
+    <row r="120" spans="1:16384">
+      <c r="A120" s="11"/>
+      <c r="D120" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K120" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="L120" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="M120" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N120" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="XFD120" s="1"/>
+    </row>
+    <row r="121" spans="1:16384">
+      <c r="A121" s="11"/>
+      <c r="D121" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G121" s="14"/>
+      <c r="H121" s="14"/>
+      <c r="K121" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="L121" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="M121" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="N121" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="XFD121" s="1"/>
+    </row>
+    <row r="122" spans="1:16384">
+      <c r="A122" s="11"/>
+      <c r="D122" s="14"/>
+      <c r="G122" s="14"/>
+      <c r="H122" s="14"/>
+      <c r="XFD122" s="1"/>
+    </row>
+    <row r="123" spans="1:16384">
+      <c r="A123" s="11"/>
+      <c r="D123" s="14"/>
+      <c r="G123" s="14"/>
+      <c r="H123" s="14"/>
+      <c r="XFD123" s="1"/>
+    </row>
+    <row r="124" customHeight="1" spans="1:16384">
+      <c r="A124" s="11"/>
+      <c r="D124" s="14"/>
+      <c r="XFD124" s="1"/>
+    </row>
+    <row r="125" customHeight="1" spans="1:4">
+      <c r="A125" s="11"/>
+      <c r="D125" s="14"/>
+    </row>
+    <row r="126" customHeight="1" spans="1:4">
+      <c r="A126" s="11"/>
+      <c r="D126" s="14"/>
+    </row>
+    <row r="127" customHeight="1" spans="1:4">
+      <c r="A127" s="11"/>
+      <c r="D127" s="14"/>
+    </row>
+    <row r="128" customHeight="1" spans="1:4">
+      <c r="A128" s="11"/>
+      <c r="D128" s="14"/>
+    </row>
+    <row r="129" customHeight="1" spans="1:4">
+      <c r="A129" s="11"/>
+      <c r="D129" s="14"/>
+    </row>
+    <row r="130" customHeight="1" spans="1:4">
+      <c r="A130" s="11"/>
+      <c r="D130" s="14"/>
+    </row>
+    <row r="131" customHeight="1" spans="1:4">
+      <c r="A131" s="11"/>
+      <c r="D131" s="14"/>
+    </row>
+    <row r="132" customHeight="1" spans="1:4">
+      <c r="A132" s="11"/>
+      <c r="D132" s="14"/>
+    </row>
+    <row r="133" customHeight="1" spans="5:10">
+      <c r="E133" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="F133" s="11"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="11"/>
+      <c r="J133" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="134" customHeight="1" spans="5:19">
+      <c r="E134" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G134" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="H134" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J134" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="K134" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="L134" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M134" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="N134" s="6"/>
+      <c r="O134" s="6"/>
+      <c r="P134" s="6"/>
+      <c r="Q134" s="6"/>
+      <c r="R134" s="6"/>
+      <c r="S134" s="6"/>
+    </row>
+    <row r="135" customHeight="1" spans="5:19">
+      <c r="E135" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G135" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="H135" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="J135" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="K135" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="L135" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M135" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="N135" s="7"/>
+      <c r="O135" s="6"/>
+      <c r="P135" s="6"/>
+      <c r="Q135" s="6"/>
+      <c r="R135" s="6"/>
+      <c r="S135" s="6"/>
+    </row>
+    <row r="136" customHeight="1" spans="5:19">
+      <c r="E136" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F136" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G136" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="H136" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J136" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="K136" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="L136" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M136" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="N136" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="O136" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="P136" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q136" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="R136" s="77" t="s">
+        <v>170</v>
+      </c>
+      <c r="S136" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="137" customHeight="1" spans="5:19">
+      <c r="E137" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F137" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G137" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="H137" s="89" t="s">
+        <v>20</v>
+      </c>
+      <c r="J137" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="K137" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="L137" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M137" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="N137" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="O137" s="6"/>
+      <c r="P137" s="6"/>
+      <c r="Q137" s="6"/>
+      <c r="R137" s="6"/>
+      <c r="S137" s="6"/>
+    </row>
+    <row r="138" customHeight="1" spans="5:19">
+      <c r="E138" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G138" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="H138" s="89" t="s">
+        <v>21</v>
+      </c>
+      <c r="J138" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="K138" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="L138" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M138" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="N138" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="O138" s="6"/>
+      <c r="P138" s="6"/>
+      <c r="Q138" s="6"/>
+      <c r="R138" s="6"/>
+      <c r="S138" s="6"/>
+    </row>
+    <row r="139" customHeight="1" spans="5:19">
+      <c r="E139" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F139" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G139" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="H139" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="J139" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="K139" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="L139" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M139" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="N139" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="O139" s="6"/>
+      <c r="P139" s="6"/>
+      <c r="Q139" s="6"/>
+      <c r="R139" s="6"/>
+      <c r="S139" s="6"/>
+    </row>
+    <row r="140" customHeight="1" spans="5:19">
+      <c r="E140" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G140" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="H140" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J140" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="K140" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="L140" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M140" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="N140" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="O140" s="6"/>
+      <c r="P140" s="6"/>
+      <c r="Q140" s="6"/>
+      <c r="R140" s="6"/>
+      <c r="S140" s="6"/>
+    </row>
+    <row r="141" customHeight="1" spans="5:19">
+      <c r="E141" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F141" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G141" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="H141" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J141" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="K141" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="L141" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M141" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="N141" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="O141" s="6"/>
+      <c r="P141" s="6"/>
+      <c r="Q141" s="6"/>
+      <c r="R141" s="6"/>
+      <c r="S141" s="6"/>
+    </row>
+    <row r="142" customHeight="1" spans="5:19">
+      <c r="E142" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G142" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="H142" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J142" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="K142" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="L142" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M142" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="N142" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="O142" s="6"/>
+      <c r="P142" s="6"/>
+      <c r="Q142" s="6"/>
+      <c r="R142" s="6"/>
+      <c r="S142" s="6"/>
+    </row>
+    <row r="143" customHeight="1" spans="5:19">
+      <c r="E143" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G143" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="H143" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J143" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="K143" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="L143" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M143" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="N143" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="O143" s="6"/>
+      <c r="P143" s="6"/>
+      <c r="Q143" s="6"/>
+      <c r="R143" s="6"/>
+      <c r="S143" s="6"/>
+    </row>
+    <row r="144" customHeight="1" spans="5:19">
+      <c r="E144" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G144" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="H144" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J144" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="K144" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="L144" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M144" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="N144" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="O144" s="6"/>
+      <c r="P144" s="6"/>
+      <c r="Q144" s="6"/>
+      <c r="R144" s="6"/>
+      <c r="S144" s="6"/>
+    </row>
+    <row r="145" customHeight="1" spans="5:19">
+      <c r="E145" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F145" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G145" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="H145" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J145" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="K145" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="L145" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M145" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="N145" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="O145" s="60"/>
+      <c r="P145" s="6"/>
+      <c r="Q145" s="6"/>
+      <c r="R145" s="7"/>
+      <c r="S145" s="6"/>
+    </row>
+    <row r="146" customHeight="1" spans="5:19">
+      <c r="E146" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F146" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G146" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="H146" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J146" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="K146" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="L146" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M146" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="N146" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="O146" s="60"/>
+      <c r="P146" s="6"/>
+      <c r="Q146" s="6"/>
+      <c r="R146" s="7"/>
+      <c r="S146" s="6"/>
+    </row>
+    <row r="147" customHeight="1" spans="5:19">
+      <c r="E147" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G147" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="H147" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="J147" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="K147" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="L147" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M147" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="N147" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="O147" s="60"/>
+      <c r="P147" s="6"/>
+      <c r="Q147" s="6"/>
+      <c r="R147" s="7"/>
+      <c r="S147" s="6"/>
+    </row>
+    <row r="148" customHeight="1" spans="5:19">
+      <c r="E148" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F148" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G148" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="H148" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="J148" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="K148" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="L148" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M148" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="N148" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="O148" s="60"/>
+      <c r="P148" s="6"/>
+      <c r="Q148" s="6"/>
+      <c r="R148" s="7"/>
+      <c r="S148" s="6"/>
+    </row>
+    <row r="149" customHeight="1" spans="5:19">
+      <c r="E149" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F149" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G149" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="H149" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="J149" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="K149" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="L149" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M149" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="N149" s="89" t="s">
+        <v>186</v>
+      </c>
+      <c r="O149" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="P149" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q149" s="6"/>
+      <c r="R149" s="6"/>
+      <c r="S149" s="6"/>
+    </row>
+    <row r="150" customHeight="1" spans="5:19">
+      <c r="E150" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G150" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="H150" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="J150" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="K150" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="L150" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M150" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="N150" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="O150" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="P150" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q150" s="6"/>
+      <c r="R150" s="6"/>
+      <c r="S150" s="6"/>
+    </row>
+    <row r="151" customHeight="1" spans="5:19">
+      <c r="E151" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F151" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G151" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="H151" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J151" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="K151" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="L151" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M151" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="N151" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="O151" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="P151" s="6"/>
+      <c r="Q151" s="6"/>
+      <c r="R151" s="6"/>
+      <c r="S151" s="6"/>
+    </row>
+    <row r="152" customHeight="1" spans="5:19">
+      <c r="E152" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G152" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="H152" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J152" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="K152" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="L152" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M152" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="N152" s="89" t="s">
+        <v>186</v>
+      </c>
+      <c r="O152" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="P152" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q152" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="R152" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="S152" s="6"/>
+    </row>
+    <row r="153" customHeight="1" spans="5:19">
+      <c r="E153" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F153" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G153" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="H153" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J153" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="K153" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="L153" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M153" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="N153" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="O153" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="P153" s="6"/>
+      <c r="Q153" s="6"/>
+      <c r="R153" s="6"/>
+      <c r="S153" s="6"/>
+    </row>
+    <row r="154" customHeight="1" spans="5:19">
+      <c r="E154" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G154" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="H154" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J154" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="K154" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="L154" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M154" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="N154" s="70" t="s">
+        <v>200</v>
+      </c>
+      <c r="O154" s="6"/>
+      <c r="P154" s="6"/>
+      <c r="Q154" s="6"/>
+      <c r="R154" s="6"/>
+      <c r="S154" s="6"/>
+    </row>
+    <row r="155" customHeight="1" spans="5:19">
+      <c r="E155" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G155" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="H155" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="J155" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="K155" s="70" t="s">
+        <v>200</v>
+      </c>
+      <c r="L155" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M155" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="N155" s="70" t="s">
+        <v>200</v>
+      </c>
+      <c r="O155" s="6"/>
+      <c r="P155" s="6"/>
+      <c r="Q155" s="6"/>
+      <c r="R155" s="6"/>
+      <c r="S155" s="6"/>
+    </row>
+    <row r="156" customHeight="1" spans="5:19">
+      <c r="E156" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F156" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G156" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="H156" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J156" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="K156" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="L156" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M156" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="N156" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="O156" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="P156" s="6"/>
+      <c r="Q156" s="6"/>
+      <c r="R156" s="6"/>
+      <c r="S156" s="6"/>
+    </row>
+    <row r="157" customHeight="1" spans="5:19">
+      <c r="E157" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F157" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G157" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="H157" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B108" s="11">
-        <v>36</v>
-      </c>
-      <c r="C108" s="16"/>
-      <c r="D108" s="11"/>
-      <c r="E108" s="1" t="s">
+      <c r="J157" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="K157" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="L157" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M157" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="N157" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="O157" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="P157" s="6"/>
+      <c r="Q157" s="6"/>
+      <c r="R157" s="6"/>
+      <c r="S157" s="6"/>
+    </row>
+    <row r="158" customHeight="1" spans="5:19">
+      <c r="E158" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F158" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G158" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="H158" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J158" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="K158" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="L158" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M158" s="72" t="s">
+        <v>138</v>
+      </c>
+      <c r="N158" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="O158" s="89" t="s">
+        <v>186</v>
+      </c>
+      <c r="P158" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q158" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="R158" s="7"/>
+      <c r="S158" s="6"/>
+    </row>
+    <row r="159" customHeight="1" spans="5:19">
+      <c r="E159" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F159" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G159" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="H159" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J159" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="K159" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="L159" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M159" s="72" t="s">
+        <v>138</v>
+      </c>
+      <c r="N159" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="O159" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P159" s="6"/>
+      <c r="Q159" s="7"/>
+      <c r="R159" s="7"/>
+      <c r="S159" s="6"/>
+    </row>
+    <row r="160" spans="4:19">
+      <c r="D160" s="14"/>
+      <c r="J160" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="K160" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="L160" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M160" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="N160" s="73" t="s">
+        <v>118</v>
+      </c>
+      <c r="O160" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="P160" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q160" s="6"/>
+      <c r="R160" s="7"/>
+      <c r="S160" s="7"/>
+    </row>
+    <row r="161" spans="4:19">
+      <c r="D161" s="14"/>
+      <c r="J161" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="K161" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="L161" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M161" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="N161" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="O161" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="P161" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q161" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="R161" s="6"/>
+      <c r="S161" s="7"/>
+    </row>
+    <row r="162" spans="4:19">
+      <c r="D162" s="14"/>
+      <c r="J162" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K162" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="L162" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M162" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="N162" s="6"/>
+      <c r="O162" s="6"/>
+      <c r="P162" s="6"/>
+      <c r="Q162" s="6"/>
+      <c r="R162" s="6"/>
+      <c r="S162" s="6"/>
+    </row>
+    <row r="163" spans="4:19">
+      <c r="D163" s="14"/>
+      <c r="J163" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K163" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="L163" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M163" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="N163" s="6"/>
+      <c r="O163" s="6"/>
+      <c r="P163" s="6"/>
+      <c r="Q163" s="6"/>
+      <c r="R163" s="6"/>
+      <c r="S163" s="6"/>
+    </row>
+    <row r="164" spans="4:19">
+      <c r="D164" s="14"/>
+      <c r="J164" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="K164" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="L164" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M164" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="N164" s="74"/>
+      <c r="O164" s="6"/>
+      <c r="P164" s="6"/>
+      <c r="Q164" s="6"/>
+      <c r="R164" s="6"/>
+      <c r="S164" s="6"/>
+    </row>
+    <row r="165" spans="4:19">
+      <c r="D165" s="14"/>
+      <c r="J165" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="K165" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="F108" s="36" t="s">
+      <c r="L165" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M165" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="N165" s="6"/>
+      <c r="O165" s="6"/>
+      <c r="P165" s="6"/>
+      <c r="Q165" s="6"/>
+      <c r="R165" s="6"/>
+      <c r="S165" s="6"/>
+    </row>
+    <row r="166" spans="4:19">
+      <c r="D166" s="14"/>
+      <c r="J166" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="K166" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="L166" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M166" s="89" t="s">
+        <v>228</v>
+      </c>
+      <c r="N166" s="6"/>
+      <c r="O166" s="6"/>
+      <c r="P166" s="6"/>
+      <c r="Q166" s="6"/>
+      <c r="R166" s="6"/>
+      <c r="S166" s="6"/>
+    </row>
+    <row r="167" spans="4:19">
+      <c r="D167" s="14"/>
+      <c r="J167" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="K167" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="L167" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M167" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="N167" s="6"/>
+      <c r="O167" s="6"/>
+      <c r="P167" s="6"/>
+      <c r="Q167" s="6"/>
+      <c r="R167" s="6"/>
+      <c r="S167" s="6"/>
+    </row>
+    <row r="168" spans="4:19">
+      <c r="D168" s="14"/>
+      <c r="J168" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="G108" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H108" s="11">
+      <c r="K168" s="73" t="s">
+        <v>118</v>
+      </c>
+      <c r="L168" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M168" s="90" t="s">
+        <v>230</v>
+      </c>
+      <c r="N168" s="6"/>
+      <c r="O168" s="6"/>
+      <c r="P168" s="6"/>
+      <c r="Q168" s="6"/>
+      <c r="R168" s="6"/>
+      <c r="S168" s="6"/>
+    </row>
+    <row r="169" spans="10:19">
+      <c r="J169" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="K169" s="73" t="s">
+        <v>118</v>
+      </c>
+      <c r="L169" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M169" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="N169" s="6"/>
+      <c r="O169" s="6"/>
+      <c r="P169" s="6"/>
+      <c r="Q169" s="6"/>
+      <c r="R169" s="6"/>
+      <c r="S169" s="6"/>
+    </row>
+    <row r="170" spans="10:19">
+      <c r="J170" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="K170" s="73" t="s">
+        <v>118</v>
+      </c>
+      <c r="L170" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M170" s="89" t="s">
+        <v>232</v>
+      </c>
+      <c r="N170" s="6"/>
+      <c r="O170" s="6"/>
+      <c r="P170" s="6"/>
+      <c r="Q170" s="6"/>
+      <c r="R170" s="6"/>
+      <c r="S170" s="6"/>
+    </row>
+    <row r="171" spans="10:19">
+      <c r="J171" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="K171" s="73" t="s">
+        <v>118</v>
+      </c>
+      <c r="L171" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M171" s="6">
         <v>-11</v>
       </c>
-      <c r="XFD108" s="1"/>
-    </row>
-    <row r="109" spans="1:16384">
-      <c r="A109" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B109" s="11">
-        <v>37</v>
-      </c>
-      <c r="C109" s="16"/>
-      <c r="D109" s="11"/>
-      <c r="E109" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F109" s="36" t="s">
+      <c r="N171" s="6"/>
+      <c r="O171" s="6"/>
+      <c r="P171" s="6"/>
+      <c r="Q171" s="6"/>
+      <c r="R171" s="6"/>
+      <c r="S171" s="6"/>
+    </row>
+    <row r="172" spans="10:19">
+      <c r="J172" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="G109" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H109" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="XFD109" s="1"/>
-    </row>
-    <row r="110" spans="1:16384">
-      <c r="A110" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B110" s="11">
-        <v>38</v>
-      </c>
-      <c r="C110" s="16"/>
-      <c r="D110" s="11"/>
-      <c r="E110" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F110" s="36" t="s">
+      <c r="K172" s="73" t="s">
+        <v>118</v>
+      </c>
+      <c r="L172" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M172" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="N172" s="6"/>
+      <c r="O172" s="6"/>
+      <c r="P172" s="6"/>
+      <c r="Q172" s="6"/>
+      <c r="R172" s="6"/>
+      <c r="S172" s="6"/>
+    </row>
+    <row r="173" spans="10:19">
+      <c r="J173" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="G110" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H110" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="I110" s="11"/>
-      <c r="XFD110" s="1"/>
-    </row>
-    <row r="111" spans="1:16384">
-      <c r="A111" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B111" s="11">
-        <v>39</v>
-      </c>
-      <c r="C111" s="16"/>
-      <c r="D111" s="11"/>
-      <c r="E111" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F111" s="36" t="s">
+      <c r="K173" s="73" t="s">
+        <v>118</v>
+      </c>
+      <c r="L173" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M173" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="N173" s="6"/>
+      <c r="O173" s="6"/>
+      <c r="P173" s="6"/>
+      <c r="Q173" s="6"/>
+      <c r="R173" s="6"/>
+      <c r="S173" s="6"/>
+    </row>
+    <row r="174" spans="10:19">
+      <c r="J174" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="G111" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H111" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="I111" s="11"/>
-      <c r="XFD111" s="1"/>
-    </row>
-    <row r="112" spans="1:16384">
-      <c r="A112" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B112" s="11">
-        <v>40</v>
-      </c>
-      <c r="C112" s="16"/>
-      <c r="E112" s="1" t="s">
+      <c r="K174" s="73" t="s">
         <v>118</v>
       </c>
-      <c r="F112" s="38" t="s">
+      <c r="L174" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M174" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="N174" s="6"/>
+      <c r="O174" s="6"/>
+      <c r="P174" s="6"/>
+      <c r="Q174" s="6"/>
+      <c r="R174" s="6"/>
+      <c r="S174" s="6"/>
+    </row>
+    <row r="175" spans="10:19">
+      <c r="J175" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G112" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H112" s="61" t="s">
-        <v>187</v>
-      </c>
-      <c r="XFD112" s="1"/>
-    </row>
-    <row r="113" spans="1:9">
-      <c r="A113" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B113" s="1">
-        <v>41</v>
-      </c>
-      <c r="C113" s="16"/>
-      <c r="E113" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F113" s="38" t="s">
+      <c r="K175" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="L175" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M175" s="89" t="s">
+        <v>236</v>
+      </c>
+      <c r="N175" s="6"/>
+      <c r="O175" s="6"/>
+      <c r="P175" s="6"/>
+      <c r="Q175" s="6"/>
+      <c r="R175" s="6"/>
+      <c r="S175" s="6"/>
+    </row>
+    <row r="176" spans="10:19">
+      <c r="J176" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G113" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H113" s="61" t="s">
-        <v>188</v>
-      </c>
-      <c r="I113" s="11"/>
-    </row>
-    <row r="114" spans="1:9">
-      <c r="A114" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B114" s="1">
-        <v>42</v>
-      </c>
-      <c r="C114" s="16"/>
-      <c r="E114" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F114" s="38" t="s">
+      <c r="K176" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="L176" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M176" s="89" t="s">
+        <v>237</v>
+      </c>
+      <c r="N176" s="6"/>
+      <c r="O176" s="6"/>
+      <c r="P176" s="6"/>
+      <c r="Q176" s="6"/>
+      <c r="R176" s="6"/>
+      <c r="S176" s="6"/>
+    </row>
+    <row r="177" spans="10:19">
+      <c r="J177" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G114" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H114" s="61" t="s">
-        <v>189</v>
-      </c>
-      <c r="I114" s="11"/>
-    </row>
-    <row r="115" spans="5:9">
-      <c r="E115" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F115" s="38" t="s">
+      <c r="K177" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="L177" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M177" s="89" t="s">
+        <v>238</v>
+      </c>
+      <c r="N177" s="6"/>
+      <c r="O177" s="6"/>
+      <c r="P177" s="6"/>
+      <c r="Q177" s="6"/>
+      <c r="R177" s="6"/>
+      <c r="S177" s="6"/>
+    </row>
+    <row r="178" spans="10:19">
+      <c r="J178" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G115" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H115" s="61" t="s">
-        <v>190</v>
-      </c>
-      <c r="I115" s="11"/>
-    </row>
-    <row r="116" spans="5:9">
-      <c r="E116" s="1" t="s">
+      <c r="K178" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="F116" s="39" t="s">
+      <c r="L178" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M178" s="89" t="s">
+        <v>239</v>
+      </c>
+      <c r="N178" s="6"/>
+      <c r="O178" s="6"/>
+      <c r="P178" s="6"/>
+      <c r="Q178" s="6"/>
+      <c r="R178" s="6"/>
+      <c r="S178" s="6"/>
+    </row>
+    <row r="179" spans="10:19">
+      <c r="J179" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="G116" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H116" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="I116" s="11"/>
-    </row>
-    <row r="117" spans="5:9">
-      <c r="E117" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F117" s="39" t="s">
+      <c r="K179" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="L179" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M179" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="N179" s="6"/>
+      <c r="O179" s="6"/>
+      <c r="P179" s="6"/>
+      <c r="Q179" s="6"/>
+      <c r="R179" s="6"/>
+      <c r="S179" s="6"/>
+    </row>
+    <row r="180" spans="10:19">
+      <c r="J180" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="G117" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H117" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="I117" s="11"/>
-    </row>
-    <row r="118" spans="5:9">
-      <c r="E118" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F118" s="39" t="s">
+      <c r="K180" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="L180" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M180" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="N180" s="6"/>
+      <c r="O180" s="6"/>
+      <c r="P180" s="6"/>
+      <c r="Q180" s="6"/>
+      <c r="R180" s="6"/>
+      <c r="S180" s="6"/>
+    </row>
+    <row r="181" spans="10:19">
+      <c r="J181" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="G118" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H118" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="I118" s="11"/>
-    </row>
-    <row r="119" spans="5:9">
-      <c r="E119" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F119" s="39" t="s">
+      <c r="K181" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="L181" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M181" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="N181" s="6"/>
+      <c r="O181" s="6"/>
+      <c r="P181" s="6"/>
+      <c r="Q181" s="6"/>
+      <c r="R181" s="6"/>
+      <c r="S181" s="6"/>
+    </row>
+    <row r="182" spans="10:19">
+      <c r="J182" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="G119" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H119" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I119" s="11"/>
-    </row>
-    <row r="120" spans="5:9">
-      <c r="E120" s="1" t="s">
+      <c r="K182" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="F120" s="40" t="s">
+      <c r="L182" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M182" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="N182" s="6"/>
+      <c r="O182" s="6"/>
+      <c r="P182" s="6"/>
+      <c r="Q182" s="6"/>
+      <c r="R182" s="6"/>
+      <c r="S182" s="6"/>
+    </row>
+    <row r="183" spans="10:19">
+      <c r="J183" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="G120" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H120" s="60" t="s">
-        <v>195</v>
-      </c>
-      <c r="I120" s="11"/>
-    </row>
-    <row r="121" spans="5:9">
-      <c r="E121" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F121" s="40" t="s">
+      <c r="K183" s="76" t="s">
+        <v>124</v>
+      </c>
+      <c r="L183" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M183" s="89" t="s">
+        <v>244</v>
+      </c>
+      <c r="N183" s="6"/>
+      <c r="O183" s="6"/>
+      <c r="P183" s="6"/>
+      <c r="Q183" s="6"/>
+      <c r="R183" s="6"/>
+      <c r="S183" s="6"/>
+    </row>
+    <row r="184" spans="10:19">
+      <c r="J184" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="G121" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I121" s="11"/>
-    </row>
-    <row r="122" spans="4:9">
-      <c r="D122" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F122" s="31" t="s">
+      <c r="K184" s="76" t="s">
+        <v>124</v>
+      </c>
+      <c r="L184" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M184" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="N184" s="6"/>
+      <c r="O184" s="6"/>
+      <c r="P184" s="6"/>
+      <c r="Q184" s="6"/>
+      <c r="R184" s="6"/>
+      <c r="S184" s="6"/>
+    </row>
+    <row r="185" spans="10:19">
+      <c r="J185" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="G122" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="I122" s="11"/>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" s="11">
-        <v>1</v>
-      </c>
-      <c r="B123" s="1">
-        <v>1</v>
-      </c>
-      <c r="D123" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F123" s="31" t="s">
+      <c r="K185" s="72" t="s">
+        <v>138</v>
+      </c>
+      <c r="L185" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M185" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="N185" s="6"/>
+      <c r="O185" s="6"/>
+      <c r="P185" s="6"/>
+      <c r="Q185" s="6"/>
+      <c r="R185" s="6"/>
+      <c r="S185" s="6"/>
+    </row>
+    <row r="186" spans="10:19">
+      <c r="J186" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="G123" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="124" customHeight="1" spans="1:8">
-      <c r="A124" s="11">
-        <v>2</v>
-      </c>
-      <c r="B124" s="1">
-        <v>1</v>
-      </c>
-      <c r="D124" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F124" s="31" t="s">
+      <c r="K186" s="72" t="s">
+        <v>138</v>
+      </c>
+      <c r="L186" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M186" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="N186" s="6"/>
+      <c r="O186" s="6"/>
+      <c r="P186" s="6"/>
+      <c r="Q186" s="6"/>
+      <c r="R186" s="6"/>
+      <c r="S186" s="6"/>
+    </row>
+    <row r="187" spans="10:19">
+      <c r="J187" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="G124" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="125" customHeight="1" spans="1:4">
-      <c r="A125" s="11">
-        <v>3</v>
-      </c>
-      <c r="B125" s="1">
-        <v>1</v>
-      </c>
-      <c r="D125" s="21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="126" customHeight="1" spans="1:4">
-      <c r="A126" s="11">
-        <v>4</v>
-      </c>
-      <c r="B126" s="1">
-        <v>1</v>
-      </c>
-      <c r="D126" s="21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="127" customHeight="1" spans="1:4">
-      <c r="A127" s="11">
-        <v>5</v>
-      </c>
-      <c r="B127" s="1">
-        <v>1</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="128" customHeight="1" spans="1:4">
-      <c r="A128" s="11">
-        <v>6</v>
-      </c>
-      <c r="B128" s="1">
-        <v>1</v>
-      </c>
-      <c r="D128" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="129" customHeight="1" spans="1:4">
-      <c r="A129" s="11">
-        <v>7</v>
-      </c>
-      <c r="B129" s="1">
-        <v>1</v>
-      </c>
-      <c r="D129" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="130" customHeight="1" spans="1:4">
-      <c r="A130" s="11">
-        <v>8</v>
-      </c>
-      <c r="B130" s="1">
-        <v>1</v>
-      </c>
-      <c r="D130" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="131" customHeight="1" spans="1:4">
-      <c r="A131" s="11">
-        <v>9</v>
-      </c>
-      <c r="B131" s="1">
-        <v>1</v>
-      </c>
-      <c r="D131" s="18" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="132" customHeight="1" spans="1:4">
-      <c r="A132" s="11">
-        <v>10</v>
-      </c>
-      <c r="B132" s="1">
-        <v>1</v>
-      </c>
-      <c r="D132" s="30" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="133" customHeight="1" spans="1:4">
-      <c r="A133" s="11">
-        <v>11</v>
-      </c>
-      <c r="B133" s="1">
-        <v>1</v>
-      </c>
-      <c r="D133" s="30" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="134" customHeight="1" spans="1:13">
-      <c r="A134" s="11">
-        <v>12</v>
-      </c>
-      <c r="B134" s="1">
-        <v>1</v>
-      </c>
-      <c r="D134" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="E134" s="1">
-        <v>0</v>
-      </c>
-      <c r="L134" s="46"/>
-      <c r="M134" s="46"/>
-    </row>
-    <row r="135" customHeight="1" spans="1:13">
-      <c r="A135" s="11">
-        <v>13</v>
-      </c>
-      <c r="B135" s="1">
-        <v>1</v>
-      </c>
-      <c r="D135" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="E135" s="1">
-        <v>0</v>
-      </c>
-      <c r="L135" s="46"/>
-      <c r="M135" s="46"/>
-    </row>
-    <row r="136" customHeight="1" spans="1:13">
-      <c r="A136" s="11">
-        <v>14</v>
-      </c>
-      <c r="B136" s="1">
-        <v>1</v>
-      </c>
-      <c r="D136" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="E136" s="1">
-        <v>0</v>
-      </c>
-      <c r="J136" s="46"/>
-      <c r="K136" s="46"/>
-      <c r="L136" s="47"/>
-      <c r="M136" s="47"/>
-    </row>
-    <row r="137" customHeight="1" spans="1:13">
-      <c r="A137" s="11">
-        <v>15</v>
-      </c>
-      <c r="B137" s="1">
-        <v>1</v>
-      </c>
-      <c r="D137" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="E137" s="1">
-        <v>0</v>
-      </c>
-      <c r="J137" s="46"/>
-      <c r="K137" s="46"/>
-      <c r="L137" s="47"/>
-      <c r="M137" s="47"/>
-    </row>
-    <row r="138" customHeight="1" spans="1:11">
-      <c r="A138" s="11">
-        <v>16</v>
-      </c>
-      <c r="B138" s="1">
-        <v>1</v>
-      </c>
-      <c r="D138" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="E138" s="1">
-        <v>0</v>
-      </c>
-      <c r="J138" s="47"/>
-      <c r="K138" s="47"/>
-    </row>
-    <row r="139" customHeight="1" spans="1:13">
-      <c r="A139" s="11">
-        <v>17</v>
-      </c>
-      <c r="B139" s="1">
-        <v>1</v>
-      </c>
-      <c r="D139" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="E139" s="1">
-        <v>0</v>
-      </c>
-      <c r="J139" s="47"/>
-      <c r="K139" s="47"/>
-      <c r="L139" s="48"/>
-      <c r="M139" s="48"/>
-    </row>
-    <row r="140" ht="26.25" spans="1:13">
-      <c r="A140" s="11">
-        <v>18</v>
-      </c>
-      <c r="B140" s="1">
-        <v>1</v>
-      </c>
-      <c r="D140" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="E140" s="1">
-        <v>0</v>
-      </c>
-      <c r="L140" s="48"/>
-      <c r="M140" s="48"/>
-    </row>
-    <row r="141" ht="26.25" spans="1:12">
-      <c r="A141" s="11">
-        <v>19</v>
-      </c>
-      <c r="B141" s="1">
-        <v>1</v>
-      </c>
-      <c r="D141" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="E141" s="1">
-        <v>0</v>
-      </c>
-      <c r="J141" s="48"/>
-      <c r="K141" s="48"/>
-      <c r="L141" s="49"/>
-    </row>
-    <row r="142" ht="26.25" spans="1:12">
-      <c r="A142" s="11">
-        <v>20</v>
-      </c>
-      <c r="B142" s="1">
-        <v>1</v>
-      </c>
-      <c r="D142" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="E142" s="1">
-        <v>0</v>
-      </c>
-      <c r="J142" s="48"/>
-      <c r="K142" s="48"/>
-      <c r="L142" s="49"/>
-    </row>
-    <row r="143" ht="21.35" spans="1:12">
-      <c r="A143" s="11">
-        <v>21</v>
-      </c>
-      <c r="B143" s="1">
-        <v>1</v>
-      </c>
-      <c r="D143" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="E143" s="1">
-        <v>0</v>
-      </c>
-      <c r="J143" s="49"/>
-      <c r="K143" s="49"/>
-      <c r="L143" s="11"/>
-    </row>
-    <row r="144" ht="21.35" spans="1:12">
-      <c r="A144" s="11">
-        <v>22</v>
-      </c>
-      <c r="B144" s="1">
-        <v>1</v>
-      </c>
-      <c r="D144" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="E144" s="1">
-        <v>0</v>
-      </c>
-      <c r="J144" s="50"/>
-      <c r="K144" s="49"/>
-      <c r="L144" s="51"/>
-    </row>
-    <row r="145" spans="1:11">
-      <c r="A145" s="11">
-        <v>23</v>
-      </c>
-      <c r="B145" s="1">
-        <v>1</v>
-      </c>
-      <c r="D145" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="E145" s="1">
-        <v>0</v>
-      </c>
-      <c r="J145" s="11"/>
-      <c r="K145" s="11"/>
-    </row>
-    <row r="146" spans="1:11">
-      <c r="A146" s="11">
-        <v>24</v>
-      </c>
-      <c r="B146" s="1">
-        <v>1</v>
-      </c>
-      <c r="D146" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="E146" s="1">
-        <v>0</v>
-      </c>
-      <c r="J146" s="51"/>
-      <c r="K146" s="51"/>
-    </row>
-    <row r="147" spans="1:5">
-      <c r="A147" s="11">
-        <v>25</v>
-      </c>
-      <c r="B147" s="1">
-        <v>1</v>
-      </c>
-      <c r="D147" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="E147" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="11">
-        <v>26</v>
-      </c>
-      <c r="B148" s="1">
-        <v>1</v>
-      </c>
-      <c r="D148" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="E148" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="11">
-        <v>27</v>
-      </c>
-      <c r="B149" s="1">
-        <v>1</v>
-      </c>
-      <c r="D149" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="E149" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="A150" s="11">
-        <v>28</v>
-      </c>
-      <c r="B150" s="1">
-        <v>1</v>
-      </c>
-      <c r="D150" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="E150" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="A151" s="11">
-        <v>29</v>
-      </c>
-      <c r="B151" s="1">
-        <v>1</v>
-      </c>
-      <c r="D151" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="E151" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
-      <c r="A152" s="11">
-        <v>30</v>
-      </c>
-      <c r="B152" s="1">
-        <v>1</v>
-      </c>
-      <c r="D152" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="E152" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
-      <c r="A153" s="11">
-        <v>31</v>
-      </c>
-      <c r="B153" s="1">
-        <v>1</v>
-      </c>
-      <c r="D153" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="E153" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
-      <c r="A154" s="11">
-        <v>32</v>
-      </c>
-      <c r="B154" s="1">
-        <v>1</v>
-      </c>
-      <c r="D154" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="E154" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
-      <c r="A155" s="11">
-        <v>33</v>
-      </c>
-      <c r="B155" s="1">
-        <v>1</v>
-      </c>
-      <c r="D155" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="E155" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
-      <c r="A156" s="11">
-        <v>34</v>
-      </c>
-      <c r="B156" s="1">
-        <v>1</v>
-      </c>
-      <c r="D156" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="E156" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
-      <c r="A157" s="11">
-        <v>35</v>
-      </c>
-      <c r="B157" s="1">
-        <v>1</v>
-      </c>
-      <c r="D157" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="E157" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
-      <c r="A158" s="11">
-        <v>36</v>
-      </c>
-      <c r="B158" s="1">
-        <v>1</v>
-      </c>
-      <c r="D158" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="E158" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
-      <c r="A159" s="11">
-        <v>37</v>
-      </c>
-      <c r="B159" s="1">
-        <v>1</v>
-      </c>
-      <c r="D159" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="E159" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
-      <c r="A160" s="11">
-        <v>38</v>
-      </c>
-      <c r="B160" s="1">
-        <v>1</v>
-      </c>
-      <c r="D160" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="E160" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
-      <c r="A161" s="11">
-        <v>39</v>
-      </c>
-      <c r="B161" s="1">
-        <v>1</v>
-      </c>
-      <c r="D161" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="E161" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
-      <c r="A162" s="11">
-        <v>40</v>
-      </c>
-      <c r="B162" s="1">
-        <v>1</v>
-      </c>
-      <c r="D162" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="E162" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
-      <c r="A163" s="1">
-        <v>41</v>
-      </c>
-      <c r="B163" s="1">
-        <v>1</v>
-      </c>
-      <c r="D163" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="E163" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
-      <c r="A164" s="1">
-        <v>42</v>
-      </c>
-      <c r="B164" s="1">
-        <v>1</v>
-      </c>
-      <c r="D164" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="E164" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="4:5">
-      <c r="D165" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="E165" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="4:5">
-      <c r="D166" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="E166" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="4:5">
-      <c r="D167" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="E167" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="4:5">
-      <c r="D168" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E168" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="4:5">
-      <c r="D169" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="E169" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="5:5">
-      <c r="E170" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="5:5">
-      <c r="E171" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="5:5">
-      <c r="E172" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="5:5">
-      <c r="E173" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="5:5">
-      <c r="E174" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="5:5">
-      <c r="E175" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="5:5">
-      <c r="E176" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="5:5">
-      <c r="E177" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="5:5">
-      <c r="E178" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="5:5">
-      <c r="E179" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="5:5">
-      <c r="E180" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="5:5">
-      <c r="E181" s="1">
-        <v>0</v>
-      </c>
+      <c r="K187" s="72" t="s">
+        <v>138</v>
+      </c>
+      <c r="L187" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M187" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="N187" s="6"/>
+      <c r="O187" s="6"/>
+      <c r="P187" s="6"/>
+      <c r="Q187" s="6"/>
+      <c r="R187" s="6"/>
+      <c r="S187" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:H1"/>
+    <mergeCell ref="K67:T67"/>
+    <mergeCell ref="E133:H133"/>
+    <mergeCell ref="J133:S133"/>
     <mergeCell ref="A66:B67"/>
-    <mergeCell ref="E66:F67"/>
+    <mergeCell ref="D66:E67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
